--- a/hierarchy tree.xlsx
+++ b/hierarchy tree.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visualization\Hierarchy tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0C8EFAA-50F2-4F8C-89EE-D9F4F86CF0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605830F3-45CD-4B27-843B-125DD73992D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8C32FE95-E06B-4245-B36F-F7413CD240C1}"/>
   </bookViews>
@@ -1687,7 +1687,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{66AA7557-8C49-473D-8F42-397C40DB967A}" type="pres">
-      <dgm:prSet presAssocID="{972C4E82-2BC8-4344-8F24-5AC0F3A0C3A3}" presName="bgRect" presStyleLbl="bgShp" presStyleIdx="0" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{972C4E82-2BC8-4344-8F24-5AC0F3A0C3A3}" presName="bgRect" presStyleLbl="bgShp" presStyleIdx="0" presStyleCnt="5" custAng="0" custLinFactY="-3723" custLinFactNeighborX="-59054" custLinFactNeighborY="-100000"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3B147781-AE6E-482F-900A-D477881D3678}" type="pres">
@@ -1947,8 +1947,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="2926005"/>
-          <a:ext cx="5638800" cy="624453"/>
+          <a:off x="0" y="4100531"/>
+          <a:ext cx="5905500" cy="875444"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1982,12 +1982,12 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="156464" tIns="156464" rIns="156464" bIns="156464" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="220472" tIns="220472" rIns="220472" bIns="220472" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="977900">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1377950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2000,14 +2000,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AE" sz="2200" kern="1200"/>
+            <a:rPr lang="en-AE" sz="3100" kern="1200"/>
             <a:t>Level 5</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="2926005"/>
-        <a:ext cx="1691640" cy="624453"/>
+        <a:off x="0" y="4100531"/>
+        <a:ext cx="1771650" cy="875444"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4AC6D92D-EB20-4837-88B2-0CA2B45B2CF1}">
@@ -2017,8 +2017,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="2197477"/>
-          <a:ext cx="5638800" cy="624453"/>
+          <a:off x="0" y="3079179"/>
+          <a:ext cx="5905500" cy="875444"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2052,12 +2052,12 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="156464" tIns="156464" rIns="156464" bIns="156464" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="220472" tIns="220472" rIns="220472" bIns="220472" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="977900">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1377950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2070,14 +2070,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AE" sz="2200" kern="1200"/>
+            <a:rPr lang="en-AE" sz="3100" kern="1200"/>
             <a:t>Level 4</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="2197477"/>
-        <a:ext cx="1691640" cy="624453"/>
+        <a:off x="0" y="3079179"/>
+        <a:ext cx="1771650" cy="875444"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6BD30117-0CE4-414B-9B32-C8B4E95F5D6F}">
@@ -2087,8 +2087,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="1468948"/>
-          <a:ext cx="5638800" cy="624453"/>
+          <a:off x="0" y="2057827"/>
+          <a:ext cx="5905500" cy="875444"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2122,12 +2122,12 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="156464" tIns="156464" rIns="156464" bIns="156464" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="220472" tIns="220472" rIns="220472" bIns="220472" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="977900">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1377950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2140,14 +2140,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AE" sz="2200" kern="1200"/>
+            <a:rPr lang="en-AE" sz="3100" kern="1200"/>
             <a:t>Level 3</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="1468948"/>
-        <a:ext cx="1691640" cy="624453"/>
+        <a:off x="0" y="2057827"/>
+        <a:ext cx="1771650" cy="875444"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7787CF13-9229-4B70-B9A5-7E7DCD8DAF1F}">
@@ -2157,8 +2157,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="740419"/>
-          <a:ext cx="5638800" cy="624453"/>
+          <a:off x="0" y="1036476"/>
+          <a:ext cx="5905500" cy="875444"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2192,12 +2192,12 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="156464" tIns="156464" rIns="156464" bIns="156464" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="220472" tIns="220472" rIns="220472" bIns="220472" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="977900">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1377950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2210,14 +2210,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AE" sz="2200" kern="1200"/>
+            <a:rPr lang="en-AE" sz="3100" kern="1200"/>
             <a:t>Level 2</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="740419"/>
-        <a:ext cx="1691640" cy="624453"/>
+        <a:off x="0" y="1036476"/>
+        <a:ext cx="1771650" cy="875444"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{66AA7557-8C49-473D-8F42-397C40DB967A}">
@@ -2227,8 +2227,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="11891"/>
-          <a:ext cx="5638800" cy="624453"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5905500" cy="875444"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2262,12 +2262,12 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="156464" tIns="156464" rIns="156464" bIns="156464" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="220472" tIns="220472" rIns="220472" bIns="220472" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="977900">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1377950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2280,14 +2280,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AE" sz="2200" kern="1200"/>
+            <a:rPr lang="en-AE" sz="3100" kern="1200"/>
             <a:t>Level 1</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="11891"/>
-        <a:ext cx="1691640" cy="624453"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="1771650" cy="875444"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{87FAE525-3197-466B-A901-5DC78B4D36B2}">
@@ -2297,8 +2297,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3472232" y="63929"/>
-          <a:ext cx="780566" cy="520377"/>
+          <a:off x="3588016" y="88078"/>
+          <a:ext cx="1094305" cy="729536"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2342,12 +2342,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="49530" tIns="49530" rIns="49530" bIns="49530" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2360,14 +2360,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AE" sz="900" kern="1200"/>
+            <a:rPr lang="en-AE" sz="1300" kern="1200"/>
             <a:t>Chairman</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3487473" y="79170"/>
-        <a:ext cx="750084" cy="489895"/>
+        <a:off x="3609383" y="109445"/>
+        <a:ext cx="1051571" cy="686802"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3BDC591F-AF1D-4531-AF6A-9A7077FBD4C0}">
@@ -2377,8 +2377,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3101463" y="584306"/>
-          <a:ext cx="761052" cy="208151"/>
+          <a:off x="3068221" y="817615"/>
+          <a:ext cx="1066947" cy="291814"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2389,16 +2389,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="761052" y="0"/>
+                <a:pt x="1066947" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="761052" y="104075"/>
+                <a:pt x="1066947" y="145907"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="104075"/>
+                <a:pt x="0" y="145907"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="208151"/>
+                <a:pt x="0" y="291814"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2439,8 +2439,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2711180" y="792457"/>
-          <a:ext cx="780566" cy="520377"/>
+          <a:off x="2521068" y="1109429"/>
+          <a:ext cx="1094305" cy="729536"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2484,12 +2484,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="49530" tIns="49530" rIns="49530" bIns="49530" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2502,14 +2502,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AE" sz="900" kern="1200"/>
+            <a:rPr lang="en-AE" sz="1300" kern="1200"/>
             <a:t>CEO</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2726421" y="807698"/>
-        <a:ext cx="750084" cy="489895"/>
+        <a:off x="2542435" y="1130796"/>
+        <a:ext cx="1051571" cy="686802"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B518F1CA-90CF-405B-81F1-E011B794A101}">
@@ -2519,8 +2519,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2594095" y="1312835"/>
-          <a:ext cx="507368" cy="208151"/>
+          <a:off x="2356923" y="1838966"/>
+          <a:ext cx="711298" cy="291814"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2531,16 +2531,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="507368" y="0"/>
+                <a:pt x="711298" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="507368" y="104075"/>
+                <a:pt x="711298" y="145907"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="104075"/>
+                <a:pt x="0" y="145907"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="208151"/>
+                <a:pt x="0" y="291814"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2581,8 +2581,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2203812" y="1520986"/>
-          <a:ext cx="780566" cy="520377"/>
+          <a:off x="1809770" y="2130781"/>
+          <a:ext cx="1094305" cy="729536"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2626,12 +2626,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="49530" tIns="49530" rIns="49530" bIns="49530" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2644,14 +2644,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AE" sz="900" kern="1200"/>
+            <a:rPr lang="en-AE" sz="1300" kern="1200"/>
             <a:t>Production Manager</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2219053" y="1536227"/>
-        <a:ext cx="750084" cy="489895"/>
+        <a:off x="1831137" y="2152148"/>
+        <a:ext cx="1051571" cy="686802"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{024AB2ED-6AC6-4562-80F9-FDC3EE964F22}">
@@ -2661,8 +2661,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2548375" y="2041363"/>
-          <a:ext cx="91440" cy="208151"/>
+          <a:off x="2311203" y="2860318"/>
+          <a:ext cx="91440" cy="291814"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2676,7 +2676,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="208151"/>
+                <a:pt x="45720" y="291814"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2717,8 +2717,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2203812" y="2249514"/>
-          <a:ext cx="780566" cy="520377"/>
+          <a:off x="1809770" y="3152133"/>
+          <a:ext cx="1094305" cy="729536"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2762,12 +2762,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="49530" tIns="49530" rIns="49530" bIns="49530" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2780,14 +2780,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AE" sz="900" kern="1200"/>
+            <a:rPr lang="en-AE" sz="1300" kern="1200"/>
             <a:t>Departmental Head</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2219053" y="2264755"/>
-        <a:ext cx="750084" cy="489895"/>
+        <a:off x="1831137" y="3173500"/>
+        <a:ext cx="1051571" cy="686802"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{02E85854-059A-4743-9D4D-DC80884E690A}">
@@ -2797,8 +2797,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2548375" y="2769892"/>
-          <a:ext cx="91440" cy="208151"/>
+          <a:off x="2311203" y="3881670"/>
+          <a:ext cx="91440" cy="291814"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2812,7 +2812,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="208151"/>
+                <a:pt x="45720" y="291814"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2853,8 +2853,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2203812" y="2978043"/>
-          <a:ext cx="780566" cy="520377"/>
+          <a:off x="1809770" y="4173484"/>
+          <a:ext cx="1094305" cy="729536"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2898,12 +2898,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="49530" tIns="49530" rIns="49530" bIns="49530" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2916,14 +2916,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AE" sz="900" kern="1200"/>
+            <a:rPr lang="en-AE" sz="1300" kern="1200"/>
             <a:t>Executives</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2219053" y="2993284"/>
-        <a:ext cx="750084" cy="489895"/>
+        <a:off x="1831137" y="4194851"/>
+        <a:ext cx="1051571" cy="686802"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{27C78357-05D0-4E47-B1CB-38D57A01977B}">
@@ -2933,8 +2933,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3101463" y="1312835"/>
-          <a:ext cx="507368" cy="208151"/>
+          <a:off x="3068221" y="1838966"/>
+          <a:ext cx="711298" cy="291814"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2948,13 +2948,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="104075"/>
+                <a:pt x="0" y="145907"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="507368" y="104075"/>
+                <a:pt x="711298" y="145907"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="507368" y="208151"/>
+                <a:pt x="711298" y="291814"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2995,8 +2995,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3218548" y="1520986"/>
-          <a:ext cx="780566" cy="520377"/>
+          <a:off x="3232367" y="2130781"/>
+          <a:ext cx="1094305" cy="729536"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3040,12 +3040,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="49530" tIns="49530" rIns="49530" bIns="49530" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3058,14 +3058,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AE" sz="900" kern="1200"/>
+            <a:rPr lang="en-AE" sz="1300" kern="1200"/>
             <a:t>Marketing Head</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3233789" y="1536227"/>
-        <a:ext cx="750084" cy="489895"/>
+        <a:off x="3253734" y="2152148"/>
+        <a:ext cx="1051571" cy="686802"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{407DD1EC-DAA5-4E16-BB84-741F05EC214F}">
@@ -3075,8 +3075,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3563112" y="2041363"/>
-          <a:ext cx="91440" cy="208151"/>
+          <a:off x="3733800" y="2860318"/>
+          <a:ext cx="91440" cy="291814"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3090,7 +3090,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="208151"/>
+                <a:pt x="45720" y="291814"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3131,8 +3131,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3218548" y="2249514"/>
-          <a:ext cx="780566" cy="520377"/>
+          <a:off x="3232367" y="3152133"/>
+          <a:ext cx="1094305" cy="729536"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3176,12 +3176,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="49530" tIns="49530" rIns="49530" bIns="49530" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3194,14 +3194,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AE" sz="900" kern="1200"/>
+            <a:rPr lang="en-AE" sz="1300" kern="1200"/>
             <a:t>Departmental Head 1</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3233789" y="2264755"/>
-        <a:ext cx="750084" cy="489895"/>
+        <a:off x="3253734" y="3173500"/>
+        <a:ext cx="1051571" cy="686802"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{58818427-E9F7-411B-9120-4DAF1F7B9045}">
@@ -3211,8 +3211,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3563112" y="2769892"/>
-          <a:ext cx="91440" cy="208151"/>
+          <a:off x="3733800" y="3881670"/>
+          <a:ext cx="91440" cy="291814"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3226,7 +3226,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="208151"/>
+                <a:pt x="45720" y="291814"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3267,8 +3267,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3218548" y="2978043"/>
-          <a:ext cx="780566" cy="520377"/>
+          <a:off x="3232367" y="4173484"/>
+          <a:ext cx="1094305" cy="729536"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3312,12 +3312,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="49530" tIns="49530" rIns="49530" bIns="49530" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3330,14 +3330,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AE" sz="900" kern="1200"/>
+            <a:rPr lang="en-AE" sz="1300" kern="1200"/>
             <a:t>Executives</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3233789" y="2993284"/>
-        <a:ext cx="750084" cy="489895"/>
+        <a:off x="3253734" y="4194851"/>
+        <a:ext cx="1051571" cy="686802"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C39990D9-DD3A-429C-8808-AA93062436FB}">
@@ -3347,8 +3347,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3862516" y="584306"/>
-          <a:ext cx="761052" cy="208151"/>
+          <a:off x="4135169" y="817615"/>
+          <a:ext cx="1066947" cy="291814"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3362,13 +3362,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="104075"/>
+                <a:pt x="0" y="145907"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="761052" y="104075"/>
+                <a:pt x="1066947" y="145907"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="761052" y="208151"/>
+                <a:pt x="1066947" y="291814"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3409,8 +3409,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4233285" y="792457"/>
-          <a:ext cx="780566" cy="520377"/>
+          <a:off x="4654964" y="1109429"/>
+          <a:ext cx="1094305" cy="729536"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3454,12 +3454,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="49530" tIns="49530" rIns="49530" bIns="49530" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3472,14 +3472,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AE" sz="900" kern="1200"/>
+            <a:rPr lang="en-AE" sz="1300" kern="1200"/>
             <a:t>Board of Director</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4248526" y="807698"/>
-        <a:ext cx="750084" cy="489895"/>
+        <a:off x="4676331" y="1130796"/>
+        <a:ext cx="1051571" cy="686802"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D70955F9-032C-4513-9973-97CA20878B21}">
@@ -3489,8 +3489,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4577848" y="1312835"/>
-          <a:ext cx="91440" cy="208151"/>
+          <a:off x="5156396" y="1838966"/>
+          <a:ext cx="91440" cy="291814"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3504,7 +3504,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="208151"/>
+                <a:pt x="45720" y="291814"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3545,8 +3545,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4233285" y="1520986"/>
-          <a:ext cx="780566" cy="520377"/>
+          <a:off x="4654964" y="2130781"/>
+          <a:ext cx="1094305" cy="729536"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3590,12 +3590,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="49530" tIns="49530" rIns="49530" bIns="49530" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3608,14 +3608,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AE" sz="900" kern="1200"/>
+            <a:rPr lang="en-AE" sz="1300" kern="1200"/>
             <a:t>RND Head</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4248526" y="1536227"/>
-        <a:ext cx="750084" cy="489895"/>
+        <a:off x="4676331" y="2152148"/>
+        <a:ext cx="1051571" cy="686802"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{56636258-F5F0-47C4-8A43-7C00E3CF6552}">
@@ -3625,8 +3625,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4577848" y="2041363"/>
-          <a:ext cx="91440" cy="208151"/>
+          <a:off x="5156396" y="2860318"/>
+          <a:ext cx="91440" cy="291814"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3640,7 +3640,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="208151"/>
+                <a:pt x="45720" y="291814"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3681,8 +3681,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4233285" y="2249514"/>
-          <a:ext cx="780566" cy="520377"/>
+          <a:off x="4654964" y="3152133"/>
+          <a:ext cx="1094305" cy="729536"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3726,12 +3726,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="49530" tIns="49530" rIns="49530" bIns="49530" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3744,14 +3744,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AE" sz="900" kern="1200"/>
+            <a:rPr lang="en-AE" sz="1300" kern="1200"/>
             <a:t>Departmental Head 2</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4248526" y="2264755"/>
-        <a:ext cx="750084" cy="489895"/>
+        <a:off x="4676331" y="3173500"/>
+        <a:ext cx="1051571" cy="686802"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F934BDC3-A545-4E7B-AEDB-8E3EF6470867}">
@@ -3761,8 +3761,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4577848" y="2769892"/>
-          <a:ext cx="91440" cy="208151"/>
+          <a:off x="5156396" y="3881670"/>
+          <a:ext cx="91440" cy="291814"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3776,7 +3776,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="208151"/>
+                <a:pt x="45720" y="291814"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3817,8 +3817,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4233285" y="2978043"/>
-          <a:ext cx="780566" cy="520377"/>
+          <a:off x="4654964" y="4173484"/>
+          <a:ext cx="1094305" cy="729536"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3862,12 +3862,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="49530" tIns="49530" rIns="49530" bIns="49530" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3880,14 +3880,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AE" sz="900" kern="1200"/>
+            <a:rPr lang="en-AE" sz="1300" kern="1200"/>
             <a:t>Executives</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4248526" y="2993284"/>
-        <a:ext cx="750084" cy="489895"/>
+        <a:off x="4676331" y="4194851"/>
+        <a:ext cx="1051571" cy="686802"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -5443,16 +5443,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5779,11 +5779,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B4A170-0A0F-4958-83A1-B4AABABE305D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>